--- a/bearing data.xlsx
+++ b/bearing data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyJordan\pycode\Projects\Timber_Beam_Bearing_PFSE V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyJordan\pycode\Projects\BearingV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE71B97-0820-4E2C-8C75-DB738F22485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F50C3F-74F6-4262-B45C-89E6D8D1218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{05BBA434-56AD-4D5E-9027-77E0454EB48A}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>F_c_perp</t>
   </si>
   <si>
-    <t>FRR</t>
-  </si>
-  <si>
     <t>B1 Route Length</t>
   </si>
   <si>
     <t>B2 Route Length</t>
+  </si>
+  <si>
+    <t>Char Depth</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -522,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
@@ -569,7 +569,7 @@
         <v>400</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
@@ -616,7 +616,7 @@
         <v>400</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
@@ -663,7 +663,7 @@
         <v>400</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
